--- a/3.Semester/Datenanalyse/62111-0100_de.xlsx
+++ b/3.Semester/Datenanalyse/62111-0100_de.xlsx
@@ -5,25 +5,38 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simfe\OneDrive\Desktop\Studium Aalen\Studium\3.Semester\Datenanalyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0E3B5E-D973-4FD5-A9B0-9D3599744E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB3D355-F7F9-4AA8-8894-F537447AD85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="206" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="206" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="62111-0100" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="23" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId2"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="42">
   <si>
     <t>Volks.-,Hpt.-,Real.abschl.,m.abg.Berufsausbildung</t>
   </si>
@@ -147,6 +160,9 @@
   <si>
     <t>Gesamt: Mittelwert von Ohne Angabe des Abschlusses</t>
   </si>
+  <si>
+    <t>(Alle)</t>
+  </si>
 </sst>
 </file>
 
@@ -154,8 +170,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -248,7 +264,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -260,10 +276,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -275,17 +291,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -310,6 +325,1236 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[62111-0100_de.xlsx]62111-0100!PivotTable4</c:name>
+    <c:fmtId val="1"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'62111-0100'!$N$3:$N$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Früheres Bundesgebiet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'62111-0100'!$M$5:$M$30</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="16"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Mittelwert von Volks.-,Hpt.-,Real.abschl.,m.abg.Berufsausbildung</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Mittelwert von Volks.-,Hpt.-,Real.abschl.,oh.abg.Berufsausbildung</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Mittelwert von Abitur, mit abgeschlossener Berufsausbildung</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Mittelwert von Abitur, ohne abgeschlossene Berufsausbildung</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Mittelwert von Fachhochschulabschluss</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Mittelwert von Fachhochschul- oder Universitätsabschluss</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Mittelwert von Hochschul- oder Universitätsabschluss</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Mittelwert von Ohne Angabe des Abschlusses</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Mittelwert von Volks.-,Hpt.-,Real.abschl.,m.abg.Berufsausbildung</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Mittelwert von Volks.-,Hpt.-,Real.abschl.,oh.abg.Berufsausbildung</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Mittelwert von Abitur, mit abgeschlossener Berufsausbildung</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Mittelwert von Abitur, ohne abgeschlossene Berufsausbildung</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Mittelwert von Fachhochschulabschluss</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Mittelwert von Fachhochschul- oder Universitätsabschluss</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Mittelwert von Hochschul- oder Universitätsabschluss</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Mittelwert von Ohne Angabe des Abschlusses</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Bruttomonatsverdienste der Angestellten</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Bruttomonatsverdienste der Arbeiter</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'62111-0100'!$N$5:$N$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>3326.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2817</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3712.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3666.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4733.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5176.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3543.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2597.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2256.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2522.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2333.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2506</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2179.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E96C-4983-A86B-D208D17000F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'62111-0100'!$O$3:$O$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Neue Länder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'62111-0100'!$M$5:$M$30</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="16"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Mittelwert von Volks.-,Hpt.-,Real.abschl.,m.abg.Berufsausbildung</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Mittelwert von Volks.-,Hpt.-,Real.abschl.,oh.abg.Berufsausbildung</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Mittelwert von Abitur, mit abgeschlossener Berufsausbildung</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Mittelwert von Abitur, ohne abgeschlossene Berufsausbildung</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Mittelwert von Fachhochschulabschluss</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Mittelwert von Fachhochschul- oder Universitätsabschluss</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Mittelwert von Hochschul- oder Universitätsabschluss</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Mittelwert von Ohne Angabe des Abschlusses</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Mittelwert von Volks.-,Hpt.-,Real.abschl.,m.abg.Berufsausbildung</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Mittelwert von Volks.-,Hpt.-,Real.abschl.,oh.abg.Berufsausbildung</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Mittelwert von Abitur, mit abgeschlossener Berufsausbildung</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Mittelwert von Abitur, ohne abgeschlossene Berufsausbildung</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Mittelwert von Fachhochschulabschluss</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Mittelwert von Fachhochschul- oder Universitätsabschluss</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Mittelwert von Hochschul- oder Universitätsabschluss</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Mittelwert von Ohne Angabe des Abschlusses</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Bruttomonatsverdienste der Angestellten</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Bruttomonatsverdienste der Arbeiter</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'62111-0100'!$O$5:$O$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2282.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2262.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2724.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2642</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3204.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3594.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2559.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1834.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1670.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2024.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1915.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2003.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1688.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E96C-4983-A86B-D208D17000F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1078494367"/>
+        <c:axId val="1078498687"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1078494367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1078498687"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1078498687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1078494367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>480390</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>69573</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1010477</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>96077</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{004CEEFC-E20D-84E6-34FA-9409E526D822}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -638,16 +1883,16 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{98DF45F0-5427-42AF-ABAF-8B69541F96C8}" name="PivotTable4" cacheId="23" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{98DF45F0-5427-42AF-ABAF-8B69541F96C8}" name="PivotTable4" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="M3:P30" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="11">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="6">
         <item x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -785,7 +2030,7 @@
     <dataField name="Mittelwert von Hochschul- oder Universitätsabschluss" fld="9" subtotal="average" baseField="2" baseItem="0"/>
     <dataField name="Mittelwert von Ohne Angabe des Abschlusses" fld="10" subtotal="average" baseField="2" baseItem="0"/>
   </dataFields>
-  <chartFormats count="2">
+  <chartFormats count="4">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -799,6 +2044,30 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -1142,28 +2411,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="148" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="L16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N34" sqref="N34"/>
+      <selection pane="bottomRight" activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" customWidth="1"/>
     <col min="5" max="5" width="19.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" customWidth="1"/>
     <col min="7" max="7" width="19" style="1" customWidth="1"/>
     <col min="8" max="11" width="17" style="1" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" style="1"/>
-    <col min="13" max="13" width="60.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="61.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="47.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -1189,13 +2458,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="9" t="s">
@@ -1222,11 +2491,11 @@
       <c r="K1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="20" t="s">
         <v>19</v>
       </c>
       <c r="N1" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
@@ -1297,7 +2566,7 @@
         <v>3340</v>
       </c>
       <c r="M3"/>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="20" t="s">
         <v>24</v>
       </c>
       <c r="O3"/>
@@ -1354,7 +2623,7 @@
       <c r="K4" s="18">
         <v>1616</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="M4" s="20" t="s">
         <v>22</v>
       </c>
       <c r="N4" t="s">
@@ -1420,12 +2689,12 @@
       <c r="K5" s="18">
         <v>2459</v>
       </c>
-      <c r="M5" s="22" t="s">
+      <c r="M5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
       <c r="Q5"/>
       <c r="R5"/>
       <c r="S5"/>
@@ -1478,17 +2747,17 @@
       <c r="K6" s="18">
         <v>2139</v>
       </c>
-      <c r="M6" s="23" t="s">
+      <c r="M6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="N6" s="24">
-        <v>3135</v>
-      </c>
-      <c r="O6" s="24">
-        <v>2193</v>
-      </c>
-      <c r="P6" s="24">
-        <v>2664</v>
+      <c r="N6" s="23">
+        <v>3326.2</v>
+      </c>
+      <c r="O6" s="23">
+        <v>2282.8000000000002</v>
+      </c>
+      <c r="P6" s="23">
+        <v>2804.5</v>
       </c>
       <c r="Q6"/>
       <c r="R6"/>
@@ -1544,17 +2813,17 @@
       <c r="K7" s="18">
         <v>3467</v>
       </c>
-      <c r="M7" s="23" t="s">
+      <c r="M7" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="24">
-        <v>2655</v>
-      </c>
-      <c r="O7" s="24">
-        <v>2173</v>
-      </c>
-      <c r="P7" s="24">
-        <v>2414</v>
+      <c r="N7" s="23">
+        <v>2817</v>
+      </c>
+      <c r="O7" s="23">
+        <v>2262.4</v>
+      </c>
+      <c r="P7" s="23">
+        <v>2539.6999999999998</v>
       </c>
       <c r="Q7"/>
       <c r="R7"/>
@@ -1608,17 +2877,17 @@
       <c r="K8" s="18">
         <v>1660</v>
       </c>
-      <c r="M8" s="23" t="s">
+      <c r="M8" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="N8" s="24">
-        <v>3499</v>
-      </c>
-      <c r="O8" s="24">
-        <v>2617</v>
-      </c>
-      <c r="P8" s="24">
-        <v>3058</v>
+      <c r="N8" s="23">
+        <v>3712.4</v>
+      </c>
+      <c r="O8" s="23">
+        <v>2724.4</v>
+      </c>
+      <c r="P8" s="23">
+        <v>3218.4</v>
       </c>
       <c r="Q8"/>
       <c r="R8"/>
@@ -1674,17 +2943,17 @@
       <c r="K9" s="18">
         <v>2481</v>
       </c>
-      <c r="M9" s="23" t="s">
+      <c r="M9" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="N9" s="24">
-        <v>3456</v>
-      </c>
-      <c r="O9" s="24">
-        <v>2538</v>
-      </c>
-      <c r="P9" s="24">
-        <v>2997</v>
+      <c r="N9" s="23">
+        <v>3666.6</v>
+      </c>
+      <c r="O9" s="23">
+        <v>2642</v>
+      </c>
+      <c r="P9" s="23">
+        <v>3154.3</v>
       </c>
       <c r="Q9"/>
       <c r="R9"/>
@@ -1738,17 +3007,17 @@
       <c r="K10" s="18">
         <v>2185</v>
       </c>
-      <c r="M10" s="23" t="s">
+      <c r="M10" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="N10" s="24">
-        <v>4461</v>
-      </c>
-      <c r="O10" s="24">
-        <v>3078</v>
-      </c>
-      <c r="P10" s="24">
-        <v>3769.5</v>
+      <c r="N10" s="23">
+        <v>4733.2</v>
+      </c>
+      <c r="O10" s="23">
+        <v>3204.2</v>
+      </c>
+      <c r="P10" s="23">
+        <v>3968.7</v>
       </c>
       <c r="Q10"/>
       <c r="R10"/>
@@ -1804,12 +3073,12 @@
       <c r="K11" s="18">
         <v>3547</v>
       </c>
-      <c r="M11" s="23" t="s">
+      <c r="M11" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
       <c r="Q11"/>
       <c r="R11"/>
       <c r="S11"/>
@@ -1862,17 +3131,17 @@
       <c r="K12" s="18">
         <v>1681</v>
       </c>
-      <c r="M12" s="23" t="s">
+      <c r="M12" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="N12" s="24">
-        <v>4879</v>
-      </c>
-      <c r="O12" s="24">
-        <v>3453</v>
-      </c>
-      <c r="P12" s="24">
-        <v>4166</v>
+      <c r="N12" s="23">
+        <v>5176.3999999999996</v>
+      </c>
+      <c r="O12" s="23">
+        <v>3594.6</v>
+      </c>
+      <c r="P12" s="23">
+        <v>4385.5</v>
       </c>
       <c r="Q12"/>
       <c r="R12"/>
@@ -1928,17 +3197,17 @@
       <c r="K13" s="14">
         <v>2552</v>
       </c>
-      <c r="M13" s="23" t="s">
+      <c r="M13" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="N13" s="24">
-        <v>3340</v>
-      </c>
-      <c r="O13" s="24">
-        <v>2459</v>
-      </c>
-      <c r="P13" s="24">
-        <v>2899.5</v>
+      <c r="N13" s="23">
+        <v>3543.8</v>
+      </c>
+      <c r="O13" s="23">
+        <v>2559.6</v>
+      </c>
+      <c r="P13" s="23">
+        <v>3051.7</v>
       </c>
       <c r="Q13"/>
       <c r="R13"/>
@@ -1992,12 +3261,12 @@
       <c r="K14" s="14">
         <v>2223</v>
       </c>
-      <c r="M14" s="22" t="s">
+      <c r="M14" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
       <c r="Q14"/>
       <c r="R14"/>
       <c r="S14"/>
@@ -2052,17 +3321,17 @@
       <c r="K15" s="14">
         <v>3641</v>
       </c>
-      <c r="M15" s="23" t="s">
+      <c r="M15" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="N15" s="24">
-        <v>2506</v>
-      </c>
-      <c r="O15" s="24">
-        <v>1756</v>
-      </c>
-      <c r="P15" s="24">
-        <v>2131</v>
+      <c r="N15" s="23">
+        <v>2597.4</v>
+      </c>
+      <c r="O15" s="23">
+        <v>1834.2</v>
+      </c>
+      <c r="P15" s="23">
+        <v>2215.8000000000002</v>
       </c>
       <c r="Q15"/>
       <c r="R15"/>
@@ -2116,17 +3385,17 @@
       <c r="K16" s="14">
         <v>1734</v>
       </c>
-      <c r="M16" s="23" t="s">
+      <c r="M16" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="N16" s="24">
-        <v>2177</v>
-      </c>
-      <c r="O16" s="24">
-        <v>1599</v>
-      </c>
-      <c r="P16" s="24">
-        <v>1888</v>
+      <c r="N16" s="23">
+        <v>2256.1999999999998</v>
+      </c>
+      <c r="O16" s="23">
+        <v>1670.4</v>
+      </c>
+      <c r="P16" s="23">
+        <v>1963.3</v>
       </c>
       <c r="Q16"/>
       <c r="R16"/>
@@ -2182,17 +3451,17 @@
       <c r="K17" s="14">
         <v>2626</v>
       </c>
-      <c r="M17" s="23" t="s">
+      <c r="M17" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="N17" s="24">
-        <v>2434</v>
-      </c>
-      <c r="O17" s="24">
-        <v>1938</v>
-      </c>
-      <c r="P17" s="24">
-        <v>2186</v>
+      <c r="N17" s="23">
+        <v>2522.6</v>
+      </c>
+      <c r="O17" s="23">
+        <v>2024.4</v>
+      </c>
+      <c r="P17" s="23">
+        <v>2273.5</v>
       </c>
       <c r="Q17"/>
       <c r="R17"/>
@@ -2246,17 +3515,17 @@
       <c r="K18" s="14">
         <v>2248</v>
       </c>
-      <c r="M18" s="23" t="s">
+      <c r="M18" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="N18" s="24">
-        <v>2252</v>
-      </c>
-      <c r="O18" s="24">
-        <v>1834</v>
-      </c>
-      <c r="P18" s="24">
-        <v>2043</v>
+      <c r="N18" s="23">
+        <v>2333.8000000000002</v>
+      </c>
+      <c r="O18" s="23">
+        <v>1915.8</v>
+      </c>
+      <c r="P18" s="23">
+        <v>2124.8000000000002</v>
       </c>
       <c r="Q18"/>
       <c r="R18"/>
@@ -2312,12 +3581,12 @@
       <c r="K19" s="14">
         <v>3724</v>
       </c>
-      <c r="M19" s="23" t="s">
+      <c r="M19" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
       <c r="Q19"/>
       <c r="R19"/>
       <c r="S19"/>
@@ -2370,17 +3639,17 @@
       <c r="K20" s="14">
         <v>1750</v>
       </c>
-      <c r="M20" s="23" t="s">
+      <c r="M20" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="N20" s="24">
-        <v>2418</v>
-      </c>
-      <c r="O20" s="24">
-        <v>1918</v>
-      </c>
-      <c r="P20" s="24">
-        <v>2168</v>
+      <c r="N20" s="23">
+        <v>2506</v>
+      </c>
+      <c r="O20" s="23">
+        <v>2003.6</v>
+      </c>
+      <c r="P20" s="23">
+        <v>2254.8000000000002</v>
       </c>
       <c r="Q20"/>
       <c r="R20"/>
@@ -2436,12 +3705,12 @@
       <c r="K21" s="14">
         <v>2680</v>
       </c>
-      <c r="M21" s="23" t="s">
+      <c r="M21" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
       <c r="Q21"/>
       <c r="R21"/>
       <c r="S21"/>
@@ -2465,45 +3734,45 @@
       <c r="AK21"/>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="M22" s="23" t="s">
+      <c r="M22" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="N22" s="24">
-        <v>2103</v>
-      </c>
-      <c r="O22" s="24">
-        <v>1616</v>
-      </c>
-      <c r="P22" s="24">
-        <v>1859.5</v>
+      <c r="N22" s="23">
+        <v>2179.6</v>
+      </c>
+      <c r="O22" s="23">
+        <v>1688.2</v>
+      </c>
+      <c r="P22" s="23">
+        <v>1933.9</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="M23" s="22" t="s">
+      <c r="M23" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="N23" s="24">
-        <v>2820.5</v>
-      </c>
-      <c r="O23" s="24">
-        <v>1974.5</v>
-      </c>
-      <c r="P23" s="24">
-        <v>2397.5</v>
+      <c r="N23" s="23">
+        <v>2961.8</v>
+      </c>
+      <c r="O23" s="23">
+        <v>2058.5</v>
+      </c>
+      <c r="P23" s="23">
+        <v>2510.15</v>
       </c>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="M24" s="22" t="s">
+      <c r="M24" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="N24" s="24">
-        <v>2416</v>
-      </c>
-      <c r="O24" s="24">
-        <v>1886</v>
-      </c>
-      <c r="P24" s="24">
-        <v>2151</v>
+      <c r="N24" s="23">
+        <v>2536.6</v>
+      </c>
+      <c r="O24" s="23">
+        <v>1966.4</v>
+      </c>
+      <c r="P24" s="23">
+        <v>2251.5</v>
       </c>
     </row>
     <row r="25" spans="1:37" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -2532,17 +3801,17 @@
       <c r="K25" s="15">
         <v>270967</v>
       </c>
-      <c r="M25" s="22" t="s">
+      <c r="M25" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="N25" s="24">
-        <v>2966.5</v>
-      </c>
-      <c r="O25" s="24">
-        <v>2277.5</v>
-      </c>
-      <c r="P25" s="24">
-        <v>2622</v>
+      <c r="N25" s="23">
+        <v>3117.5</v>
+      </c>
+      <c r="O25" s="23">
+        <v>2374.4</v>
+      </c>
+      <c r="P25" s="23">
+        <v>2745.95</v>
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
@@ -2575,45 +3844,45 @@
       <c r="K26" s="11">
         <v>489224</v>
       </c>
-      <c r="M26" s="22" t="s">
+      <c r="M26" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="N26" s="24">
-        <v>2854</v>
-      </c>
-      <c r="O26" s="24">
-        <v>2186</v>
-      </c>
-      <c r="P26" s="24">
-        <v>2520</v>
+      <c r="N26" s="23">
+        <v>3000.2</v>
+      </c>
+      <c r="O26" s="23">
+        <v>2278.9</v>
+      </c>
+      <c r="P26" s="23">
+        <v>2639.55</v>
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="M27" s="22" t="s">
+      <c r="M27" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="N27" s="24">
-        <v>4461</v>
-      </c>
-      <c r="O27" s="24">
-        <v>3078</v>
-      </c>
-      <c r="P27" s="24">
-        <v>3769.5</v>
+      <c r="N27" s="23">
+        <v>4733.2</v>
+      </c>
+      <c r="O27" s="23">
+        <v>3204.2</v>
+      </c>
+      <c r="P27" s="23">
+        <v>3968.7</v>
       </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="M28" s="22" t="s">
+      <c r="M28" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="N28" s="24">
-        <v>2418</v>
-      </c>
-      <c r="O28" s="24">
-        <v>1918</v>
-      </c>
-      <c r="P28" s="24">
-        <v>2168</v>
+      <c r="N28" s="23">
+        <v>2506</v>
+      </c>
+      <c r="O28" s="23">
+        <v>2003.6</v>
+      </c>
+      <c r="P28" s="23">
+        <v>2254.8000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.25">
@@ -2642,17 +3911,17 @@
       <c r="K29" s="15">
         <v>43495</v>
       </c>
-      <c r="M29" s="22" t="s">
+      <c r="M29" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="N29" s="24">
-        <v>4879</v>
-      </c>
-      <c r="O29" s="24">
-        <v>3453</v>
-      </c>
-      <c r="P29" s="24">
-        <v>4166</v>
+      <c r="N29" s="23">
+        <v>5176.3999999999996</v>
+      </c>
+      <c r="O29" s="23">
+        <v>3594.6</v>
+      </c>
+      <c r="P29" s="23">
+        <v>4385.5</v>
       </c>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.25">
@@ -2682,17 +3951,17 @@
       <c r="K30" s="15">
         <v>95346</v>
       </c>
-      <c r="M30" s="22" t="s">
+      <c r="M30" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="N30" s="24">
-        <v>2721.5</v>
-      </c>
-      <c r="O30" s="24">
-        <v>2037.5</v>
-      </c>
-      <c r="P30" s="24">
-        <v>2379.5</v>
+      <c r="N30" s="23">
+        <v>2861.7</v>
+      </c>
+      <c r="O30" s="23">
+        <v>2123.9</v>
+      </c>
+      <c r="P30" s="23">
+        <v>2492.8000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -3153,5 +4422,6 @@
   <headerFooter>
     <oddFooter>&amp;CAbgerufen am 21.11.24 / 15:13:09&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/3.Semester/Datenanalyse/62111-0100_de.xlsx
+++ b/3.Semester/Datenanalyse/62111-0100_de.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Desktop\Studium\3.Semester\Datenanalyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0E3B5E-D973-4FD5-A9B0-9D3599744E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121A4FFA-E0F4-477F-8131-484BDAA0881B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="206" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="23" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -154,8 +154,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -248,7 +248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -260,10 +260,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -275,17 +275,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -293,7 +292,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -638,7 +636,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{98DF45F0-5427-42AF-ABAF-8B69541F96C8}" name="PivotTable4" cacheId="23" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{98DF45F0-5427-42AF-ABAF-8B69541F96C8}" name="PivotTable4" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="M3:P30" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="11">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -785,7 +783,7 @@
     <dataField name="Mittelwert von Hochschul- oder Universitätsabschluss" fld="9" subtotal="average" baseField="2" baseItem="0"/>
     <dataField name="Mittelwert von Ohne Angabe des Abschlusses" fld="10" subtotal="average" baseField="2" baseItem="0"/>
   </dataFields>
-  <chartFormats count="2">
+  <chartFormats count="4">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -799,6 +797,30 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -1146,7 +1168,7 @@
       <pane xSplit="3" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N34" sqref="N34"/>
+      <selection pane="bottomRight" activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1189,13 +1211,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="9" t="s">
@@ -1222,7 +1244,7 @@
       <c r="K1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="20" t="s">
         <v>19</v>
       </c>
       <c r="N1" t="s">
@@ -1297,7 +1319,7 @@
         <v>3340</v>
       </c>
       <c r="M3"/>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="20" t="s">
         <v>24</v>
       </c>
       <c r="O3"/>
@@ -1354,7 +1376,7 @@
       <c r="K4" s="18">
         <v>1616</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="M4" s="20" t="s">
         <v>22</v>
       </c>
       <c r="N4" t="s">
@@ -1420,12 +1442,12 @@
       <c r="K5" s="18">
         <v>2459</v>
       </c>
-      <c r="M5" s="22" t="s">
+      <c r="M5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
       <c r="Q5"/>
       <c r="R5"/>
       <c r="S5"/>
@@ -1478,16 +1500,16 @@
       <c r="K6" s="18">
         <v>2139</v>
       </c>
-      <c r="M6" s="23" t="s">
+      <c r="M6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="N6" s="24">
+      <c r="N6">
         <v>3135</v>
       </c>
-      <c r="O6" s="24">
+      <c r="O6">
         <v>2193</v>
       </c>
-      <c r="P6" s="24">
+      <c r="P6">
         <v>2664</v>
       </c>
       <c r="Q6"/>
@@ -1544,16 +1566,16 @@
       <c r="K7" s="18">
         <v>3467</v>
       </c>
-      <c r="M7" s="23" t="s">
+      <c r="M7" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="24">
+      <c r="N7">
         <v>2655</v>
       </c>
-      <c r="O7" s="24">
+      <c r="O7">
         <v>2173</v>
       </c>
-      <c r="P7" s="24">
+      <c r="P7">
         <v>2414</v>
       </c>
       <c r="Q7"/>
@@ -1608,16 +1630,16 @@
       <c r="K8" s="18">
         <v>1660</v>
       </c>
-      <c r="M8" s="23" t="s">
+      <c r="M8" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="N8" s="24">
+      <c r="N8">
         <v>3499</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8">
         <v>2617</v>
       </c>
-      <c r="P8" s="24">
+      <c r="P8">
         <v>3058</v>
       </c>
       <c r="Q8"/>
@@ -1674,16 +1696,16 @@
       <c r="K9" s="18">
         <v>2481</v>
       </c>
-      <c r="M9" s="23" t="s">
+      <c r="M9" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="N9" s="24">
+      <c r="N9">
         <v>3456</v>
       </c>
-      <c r="O9" s="24">
+      <c r="O9">
         <v>2538</v>
       </c>
-      <c r="P9" s="24">
+      <c r="P9">
         <v>2997</v>
       </c>
       <c r="Q9"/>
@@ -1738,16 +1760,16 @@
       <c r="K10" s="18">
         <v>2185</v>
       </c>
-      <c r="M10" s="23" t="s">
+      <c r="M10" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="N10" s="24">
+      <c r="N10">
         <v>4461</v>
       </c>
-      <c r="O10" s="24">
+      <c r="O10">
         <v>3078</v>
       </c>
-      <c r="P10" s="24">
+      <c r="P10">
         <v>3769.5</v>
       </c>
       <c r="Q10"/>
@@ -1804,12 +1826,12 @@
       <c r="K11" s="18">
         <v>3547</v>
       </c>
-      <c r="M11" s="23" t="s">
+      <c r="M11" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
       <c r="Q11"/>
       <c r="R11"/>
       <c r="S11"/>
@@ -1862,16 +1884,16 @@
       <c r="K12" s="18">
         <v>1681</v>
       </c>
-      <c r="M12" s="23" t="s">
+      <c r="M12" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="N12" s="24">
+      <c r="N12">
         <v>4879</v>
       </c>
-      <c r="O12" s="24">
+      <c r="O12">
         <v>3453</v>
       </c>
-      <c r="P12" s="24">
+      <c r="P12">
         <v>4166</v>
       </c>
       <c r="Q12"/>
@@ -1928,16 +1950,16 @@
       <c r="K13" s="14">
         <v>2552</v>
       </c>
-      <c r="M13" s="23" t="s">
+      <c r="M13" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="N13" s="24">
+      <c r="N13">
         <v>3340</v>
       </c>
-      <c r="O13" s="24">
+      <c r="O13">
         <v>2459</v>
       </c>
-      <c r="P13" s="24">
+      <c r="P13">
         <v>2899.5</v>
       </c>
       <c r="Q13"/>
@@ -1992,12 +2014,12 @@
       <c r="K14" s="14">
         <v>2223</v>
       </c>
-      <c r="M14" s="22" t="s">
+      <c r="M14" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
       <c r="Q14"/>
       <c r="R14"/>
       <c r="S14"/>
@@ -2052,16 +2074,16 @@
       <c r="K15" s="14">
         <v>3641</v>
       </c>
-      <c r="M15" s="23" t="s">
+      <c r="M15" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="N15" s="24">
+      <c r="N15">
         <v>2506</v>
       </c>
-      <c r="O15" s="24">
+      <c r="O15">
         <v>1756</v>
       </c>
-      <c r="P15" s="24">
+      <c r="P15">
         <v>2131</v>
       </c>
       <c r="Q15"/>
@@ -2116,16 +2138,16 @@
       <c r="K16" s="14">
         <v>1734</v>
       </c>
-      <c r="M16" s="23" t="s">
+      <c r="M16" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="N16" s="24">
+      <c r="N16">
         <v>2177</v>
       </c>
-      <c r="O16" s="24">
+      <c r="O16">
         <v>1599</v>
       </c>
-      <c r="P16" s="24">
+      <c r="P16">
         <v>1888</v>
       </c>
       <c r="Q16"/>
@@ -2182,16 +2204,16 @@
       <c r="K17" s="14">
         <v>2626</v>
       </c>
-      <c r="M17" s="23" t="s">
+      <c r="M17" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="N17" s="24">
+      <c r="N17">
         <v>2434</v>
       </c>
-      <c r="O17" s="24">
+      <c r="O17">
         <v>1938</v>
       </c>
-      <c r="P17" s="24">
+      <c r="P17">
         <v>2186</v>
       </c>
       <c r="Q17"/>
@@ -2246,16 +2268,16 @@
       <c r="K18" s="14">
         <v>2248</v>
       </c>
-      <c r="M18" s="23" t="s">
+      <c r="M18" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="N18" s="24">
+      <c r="N18">
         <v>2252</v>
       </c>
-      <c r="O18" s="24">
+      <c r="O18">
         <v>1834</v>
       </c>
-      <c r="P18" s="24">
+      <c r="P18">
         <v>2043</v>
       </c>
       <c r="Q18"/>
@@ -2312,12 +2334,12 @@
       <c r="K19" s="14">
         <v>3724</v>
       </c>
-      <c r="M19" s="23" t="s">
+      <c r="M19" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
       <c r="Q19"/>
       <c r="R19"/>
       <c r="S19"/>
@@ -2370,16 +2392,16 @@
       <c r="K20" s="14">
         <v>1750</v>
       </c>
-      <c r="M20" s="23" t="s">
+      <c r="M20" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="N20" s="24">
+      <c r="N20">
         <v>2418</v>
       </c>
-      <c r="O20" s="24">
+      <c r="O20">
         <v>1918</v>
       </c>
-      <c r="P20" s="24">
+      <c r="P20">
         <v>2168</v>
       </c>
       <c r="Q20"/>
@@ -2436,12 +2458,12 @@
       <c r="K21" s="14">
         <v>2680</v>
       </c>
-      <c r="M21" s="23" t="s">
+      <c r="M21" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
       <c r="Q21"/>
       <c r="R21"/>
       <c r="S21"/>
@@ -2465,44 +2487,44 @@
       <c r="AK21"/>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="M22" s="23" t="s">
+      <c r="M22" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="N22" s="24">
+      <c r="N22">
         <v>2103</v>
       </c>
-      <c r="O22" s="24">
+      <c r="O22">
         <v>1616</v>
       </c>
-      <c r="P22" s="24">
+      <c r="P22">
         <v>1859.5</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="M23" s="22" t="s">
+      <c r="M23" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="N23" s="24">
+      <c r="N23">
         <v>2820.5</v>
       </c>
-      <c r="O23" s="24">
+      <c r="O23">
         <v>1974.5</v>
       </c>
-      <c r="P23" s="24">
+      <c r="P23">
         <v>2397.5</v>
       </c>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="M24" s="22" t="s">
+      <c r="M24" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="N24" s="24">
+      <c r="N24">
         <v>2416</v>
       </c>
-      <c r="O24" s="24">
+      <c r="O24">
         <v>1886</v>
       </c>
-      <c r="P24" s="24">
+      <c r="P24">
         <v>2151</v>
       </c>
     </row>
@@ -2532,16 +2554,16 @@
       <c r="K25" s="15">
         <v>270967</v>
       </c>
-      <c r="M25" s="22" t="s">
+      <c r="M25" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="N25" s="24">
+      <c r="N25">
         <v>2966.5</v>
       </c>
-      <c r="O25" s="24">
+      <c r="O25">
         <v>2277.5</v>
       </c>
-      <c r="P25" s="24">
+      <c r="P25">
         <v>2622</v>
       </c>
     </row>
@@ -2575,44 +2597,44 @@
       <c r="K26" s="11">
         <v>489224</v>
       </c>
-      <c r="M26" s="22" t="s">
+      <c r="M26" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="N26" s="24">
+      <c r="N26">
         <v>2854</v>
       </c>
-      <c r="O26" s="24">
+      <c r="O26">
         <v>2186</v>
       </c>
-      <c r="P26" s="24">
+      <c r="P26">
         <v>2520</v>
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="M27" s="22" t="s">
+      <c r="M27" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="N27" s="24">
+      <c r="N27">
         <v>4461</v>
       </c>
-      <c r="O27" s="24">
+      <c r="O27">
         <v>3078</v>
       </c>
-      <c r="P27" s="24">
+      <c r="P27">
         <v>3769.5</v>
       </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="M28" s="22" t="s">
+      <c r="M28" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="N28" s="24">
+      <c r="N28">
         <v>2418</v>
       </c>
-      <c r="O28" s="24">
+      <c r="O28">
         <v>1918</v>
       </c>
-      <c r="P28" s="24">
+      <c r="P28">
         <v>2168</v>
       </c>
     </row>
@@ -2642,16 +2664,16 @@
       <c r="K29" s="15">
         <v>43495</v>
       </c>
-      <c r="M29" s="22" t="s">
+      <c r="M29" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="N29" s="24">
+      <c r="N29">
         <v>4879</v>
       </c>
-      <c r="O29" s="24">
+      <c r="O29">
         <v>3453</v>
       </c>
-      <c r="P29" s="24">
+      <c r="P29">
         <v>4166</v>
       </c>
     </row>
@@ -2682,16 +2704,16 @@
       <c r="K30" s="15">
         <v>95346</v>
       </c>
-      <c r="M30" s="22" t="s">
+      <c r="M30" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="N30" s="24">
+      <c r="N30">
         <v>2721.5</v>
       </c>
-      <c r="O30" s="24">
+      <c r="O30">
         <v>2037.5</v>
       </c>
-      <c r="P30" s="24">
+      <c r="P30">
         <v>2379.5</v>
       </c>
     </row>
